--- a/Excel/newtester (1).xlsx
+++ b/Excel/newtester (1).xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D122"/>
+  <dimension ref="A1:F159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2070,6 +2070,718 @@
         <v>8.553190231323242</v>
       </c>
     </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>1</v>
+      </c>
+      <c r="B123" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C123" t="n">
+        <v>35.40144348144531</v>
+      </c>
+      <c r="D123" t="n">
+        <v>16.30109977722168</v>
+      </c>
+      <c r="E123" t="n">
+        <v>16</v>
+      </c>
+      <c r="F123" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>2</v>
+      </c>
+      <c r="B124" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C124" t="n">
+        <v>30.17600250244141</v>
+      </c>
+      <c r="D124" t="n">
+        <v>13.18124961853027</v>
+      </c>
+      <c r="E124" t="n">
+        <v>14</v>
+      </c>
+      <c r="F124" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>3</v>
+      </c>
+      <c r="B125" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C125" t="n">
+        <v>23.87959861755371</v>
+      </c>
+      <c r="D125" t="n">
+        <v>8.600752830505371</v>
+      </c>
+      <c r="E125" t="n">
+        <v>13</v>
+      </c>
+      <c r="F125" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>4</v>
+      </c>
+      <c r="B126" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C126" t="n">
+        <v>18.56330108642578</v>
+      </c>
+      <c r="D126" t="n">
+        <v>2.009592294692993</v>
+      </c>
+      <c r="E126" t="n">
+        <v>13</v>
+      </c>
+      <c r="F126" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>5</v>
+      </c>
+      <c r="B127" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C127" t="n">
+        <v>16.94356155395508</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.8925042748451233</v>
+      </c>
+      <c r="E127" t="n">
+        <v>13</v>
+      </c>
+      <c r="F127" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>6</v>
+      </c>
+      <c r="B128" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C128" t="n">
+        <v>16.94356155395508</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.8925042748451233</v>
+      </c>
+      <c r="E128" t="n">
+        <v>13</v>
+      </c>
+      <c r="F128" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>7</v>
+      </c>
+      <c r="B129" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C129" t="n">
+        <v>16.94356155395508</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.8925042748451233</v>
+      </c>
+      <c r="E129" t="n">
+        <v>13</v>
+      </c>
+      <c r="F129" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>8</v>
+      </c>
+      <c r="B130" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C130" t="n">
+        <v>16.94356155395508</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.8925042748451233</v>
+      </c>
+      <c r="E130" t="n">
+        <v>13</v>
+      </c>
+      <c r="F130" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>9</v>
+      </c>
+      <c r="B131" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C131" t="n">
+        <v>16.94356155395508</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.8925042748451233</v>
+      </c>
+      <c r="E131" t="n">
+        <v>13</v>
+      </c>
+      <c r="F131" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>10</v>
+      </c>
+      <c r="B132" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C132" t="n">
+        <v>16.94356155395508</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.8925042748451233</v>
+      </c>
+      <c r="E132" t="n">
+        <v>13</v>
+      </c>
+      <c r="F132" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>11</v>
+      </c>
+      <c r="B133" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C133" t="n">
+        <v>16.94356155395508</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.8925042748451233</v>
+      </c>
+      <c r="E133" t="n">
+        <v>13</v>
+      </c>
+      <c r="F133" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>12</v>
+      </c>
+      <c r="B134" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C134" t="n">
+        <v>16.94356155395508</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.8925042748451233</v>
+      </c>
+      <c r="E134" t="n">
+        <v>13</v>
+      </c>
+      <c r="F134" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>13</v>
+      </c>
+      <c r="B135" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C135" t="n">
+        <v>16.94356155395508</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.8925042748451233</v>
+      </c>
+      <c r="E135" t="n">
+        <v>13</v>
+      </c>
+      <c r="F135" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>14</v>
+      </c>
+      <c r="B136" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C136" t="n">
+        <v>16.94356155395508</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.8925042748451233</v>
+      </c>
+      <c r="E136" t="n">
+        <v>13</v>
+      </c>
+      <c r="F136" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>Num</t>
+        </is>
+      </c>
+      <c r="B138" s="1" t="inlineStr">
+        <is>
+          <t>Area</t>
+        </is>
+      </c>
+      <c r="C138" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="D138" s="1" t="inlineStr">
+        <is>
+          <t>StdDev</t>
+        </is>
+      </c>
+      <c r="E138" s="1" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="F138" s="1" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>1</v>
+      </c>
+      <c r="B139" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C139" t="n">
+        <v>103.6089706420898</v>
+      </c>
+      <c r="D139" t="n">
+        <v>79.37881469726562</v>
+      </c>
+      <c r="E139" t="n">
+        <v>17</v>
+      </c>
+      <c r="F139" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>2</v>
+      </c>
+      <c r="B140" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C140" t="n">
+        <v>103.6089706420898</v>
+      </c>
+      <c r="D140" t="n">
+        <v>79.37881469726562</v>
+      </c>
+      <c r="E140" t="n">
+        <v>17</v>
+      </c>
+      <c r="F140" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>3</v>
+      </c>
+      <c r="B141" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C141" t="n">
+        <v>103.6089706420898</v>
+      </c>
+      <c r="D141" t="n">
+        <v>79.37881469726562</v>
+      </c>
+      <c r="E141" t="n">
+        <v>17</v>
+      </c>
+      <c r="F141" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>4</v>
+      </c>
+      <c r="B142" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C142" t="n">
+        <v>103.6089706420898</v>
+      </c>
+      <c r="D142" t="n">
+        <v>79.37881469726562</v>
+      </c>
+      <c r="E142" t="n">
+        <v>17</v>
+      </c>
+      <c r="F142" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>5</v>
+      </c>
+      <c r="B143" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C143" t="n">
+        <v>103.6089706420898</v>
+      </c>
+      <c r="D143" t="n">
+        <v>79.37881469726562</v>
+      </c>
+      <c r="E143" t="n">
+        <v>17</v>
+      </c>
+      <c r="F143" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>6</v>
+      </c>
+      <c r="B144" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C144" t="n">
+        <v>103.6089706420898</v>
+      </c>
+      <c r="D144" t="n">
+        <v>79.37881469726562</v>
+      </c>
+      <c r="E144" t="n">
+        <v>17</v>
+      </c>
+      <c r="F144" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>7</v>
+      </c>
+      <c r="B145" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C145" t="n">
+        <v>103.6089706420898</v>
+      </c>
+      <c r="D145" t="n">
+        <v>79.37881469726562</v>
+      </c>
+      <c r="E145" t="n">
+        <v>17</v>
+      </c>
+      <c r="F145" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>8</v>
+      </c>
+      <c r="B146" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C146" t="n">
+        <v>103.6089706420898</v>
+      </c>
+      <c r="D146" t="n">
+        <v>79.37881469726562</v>
+      </c>
+      <c r="E146" t="n">
+        <v>17</v>
+      </c>
+      <c r="F146" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>9</v>
+      </c>
+      <c r="B147" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C147" t="n">
+        <v>103.6089706420898</v>
+      </c>
+      <c r="D147" t="n">
+        <v>79.37881469726562</v>
+      </c>
+      <c r="E147" t="n">
+        <v>17</v>
+      </c>
+      <c r="F147" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>10</v>
+      </c>
+      <c r="B148" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C148" t="n">
+        <v>103.6089706420898</v>
+      </c>
+      <c r="D148" t="n">
+        <v>79.37881469726562</v>
+      </c>
+      <c r="E148" t="n">
+        <v>17</v>
+      </c>
+      <c r="F148" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>11</v>
+      </c>
+      <c r="B149" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C149" t="n">
+        <v>103.6089706420898</v>
+      </c>
+      <c r="D149" t="n">
+        <v>79.37881469726562</v>
+      </c>
+      <c r="E149" t="n">
+        <v>17</v>
+      </c>
+      <c r="F149" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>12</v>
+      </c>
+      <c r="B150" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C150" t="n">
+        <v>103.6089706420898</v>
+      </c>
+      <c r="D150" t="n">
+        <v>79.37881469726562</v>
+      </c>
+      <c r="E150" t="n">
+        <v>17</v>
+      </c>
+      <c r="F150" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>13</v>
+      </c>
+      <c r="B151" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C151" t="n">
+        <v>103.6089706420898</v>
+      </c>
+      <c r="D151" t="n">
+        <v>79.37881469726562</v>
+      </c>
+      <c r="E151" t="n">
+        <v>17</v>
+      </c>
+      <c r="F151" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>14</v>
+      </c>
+      <c r="B152" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C152" t="n">
+        <v>103.6089706420898</v>
+      </c>
+      <c r="D152" t="n">
+        <v>79.37881469726562</v>
+      </c>
+      <c r="E152" t="n">
+        <v>17</v>
+      </c>
+      <c r="F152" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>15</v>
+      </c>
+      <c r="B153" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C153" t="n">
+        <v>103.6089706420898</v>
+      </c>
+      <c r="D153" t="n">
+        <v>79.37881469726562</v>
+      </c>
+      <c r="E153" t="n">
+        <v>17</v>
+      </c>
+      <c r="F153" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>16</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C154" t="n">
+        <v>103.6089706420898</v>
+      </c>
+      <c r="D154" t="n">
+        <v>79.37881469726562</v>
+      </c>
+      <c r="E154" t="n">
+        <v>17</v>
+      </c>
+      <c r="F154" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>17</v>
+      </c>
+      <c r="B156" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C156" t="n">
+        <v>103.6089706420898</v>
+      </c>
+      <c r="D156" t="n">
+        <v>79.37881469726562</v>
+      </c>
+      <c r="E156" t="n">
+        <v>17</v>
+      </c>
+      <c r="F156" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>18</v>
+      </c>
+      <c r="B157" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C157" t="n">
+        <v>103.6089706420898</v>
+      </c>
+      <c r="D157" t="n">
+        <v>79.37881469726562</v>
+      </c>
+      <c r="E157" t="n">
+        <v>17</v>
+      </c>
+      <c r="F157" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>19</v>
+      </c>
+      <c r="B158" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C158" t="n">
+        <v>103.6089706420898</v>
+      </c>
+      <c r="D158" t="n">
+        <v>79.37881469726562</v>
+      </c>
+      <c r="E158" t="n">
+        <v>17</v>
+      </c>
+      <c r="F158" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>20</v>
+      </c>
+      <c r="B159" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C159" t="n">
+        <v>103.6089706420898</v>
+      </c>
+      <c r="D159" t="n">
+        <v>79.37881469726562</v>
+      </c>
+      <c r="E159" t="n">
+        <v>17</v>
+      </c>
+      <c r="F159" t="n">
+        <v>244</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
